--- a/products/9.xlsx
+++ b/products/9.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="C2">
         <v>218</v>
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="C5">
         <v>314</v>
